--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_T45_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_T45_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01140061561852912</v>
+        <v>0.03281260289867554</v>
       </c>
       <c r="C2">
-        <v>0.1285420665309999</v>
+        <v>0.712211698162994</v>
       </c>
       <c r="D2">
-        <v>0.03014188771060794</v>
+        <v>1.276354782257036</v>
       </c>
       <c r="E2">
-        <v>0.1736141921347674</v>
+        <v>1.12975872745336</v>
       </c>
       <c r="F2">
-        <v>0.1779866349240244</v>
+        <v>1.162021718847977</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03281260289867554</v>
+        <v>-0.08894343397640261</v>
       </c>
       <c r="C3">
-        <v>0.712211698162994</v>
+        <v>0.6850734014878143</v>
       </c>
       <c r="D3">
-        <v>1.276354782257036</v>
+        <v>1.351404884049018</v>
       </c>
       <c r="E3">
-        <v>1.12975872745336</v>
+        <v>1.162499412494053</v>
       </c>
       <c r="F3">
-        <v>1.162021718847977</v>
+        <v>1.194764546449047</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08894343397640261</v>
+        <v>0.01098408408208978</v>
       </c>
       <c r="C4">
-        <v>0.6850734014878143</v>
+        <v>0.5782217553777625</v>
       </c>
       <c r="D4">
-        <v>1.351404884049018</v>
+        <v>0.6081029103588239</v>
       </c>
       <c r="E4">
-        <v>1.162499412494053</v>
+        <v>0.7798095346678084</v>
       </c>
       <c r="F4">
-        <v>1.194764546449047</v>
+        <v>0.805303924577184</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.01098408408208978</v>
+        <v>0.1235330352319591</v>
       </c>
       <c r="C5">
-        <v>0.5782217553777625</v>
+        <v>0.5509845820580629</v>
       </c>
       <c r="D5">
-        <v>0.6081029103588239</v>
+        <v>0.7140980823158125</v>
       </c>
       <c r="E5">
-        <v>0.7798095346678084</v>
+        <v>0.8450432428673769</v>
       </c>
       <c r="F5">
-        <v>0.805303924577184</v>
+        <v>0.8653061007871674</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1235330352319591</v>
+        <v>0.08484111210645341</v>
       </c>
       <c r="C6">
-        <v>0.5509845820580629</v>
+        <v>0.6180194413583581</v>
       </c>
       <c r="D6">
-        <v>0.7140980823158125</v>
+        <v>0.73762096509949</v>
       </c>
       <c r="E6">
-        <v>0.8450432428673769</v>
+        <v>0.858848627582003</v>
       </c>
       <c r="F6">
-        <v>0.8653061007871674</v>
+        <v>0.8869099907129777</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.08484111210645341</v>
+        <v>0.09014767153583389</v>
       </c>
       <c r="C7">
-        <v>0.6180194413583581</v>
+        <v>0.6854765477197997</v>
       </c>
       <c r="D7">
-        <v>0.73762096509949</v>
+        <v>0.9025650063113468</v>
       </c>
       <c r="E7">
-        <v>0.858848627582003</v>
+        <v>0.9500342132320009</v>
       </c>
       <c r="F7">
-        <v>0.8869099907129777</v>
+        <v>0.9843652458633849</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09014767153583389</v>
+        <v>0.1184762789139503</v>
       </c>
       <c r="C8">
-        <v>0.6854765477197997</v>
+        <v>0.603487522271732</v>
       </c>
       <c r="D8">
-        <v>0.9025650063113468</v>
+        <v>0.7334425100585387</v>
       </c>
       <c r="E8">
-        <v>0.9500342132320009</v>
+        <v>0.856412581679262</v>
       </c>
       <c r="F8">
-        <v>0.9843652458633849</v>
+        <v>0.8858930048630905</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1184762789139503</v>
+        <v>0.1655637249968011</v>
       </c>
       <c r="C9">
-        <v>0.603487522271732</v>
+        <v>0.6554059886689477</v>
       </c>
       <c r="D9">
-        <v>0.7334425100585387</v>
+        <v>0.9061585844750577</v>
       </c>
       <c r="E9">
-        <v>0.856412581679262</v>
+        <v>0.9519236232361595</v>
       </c>
       <c r="F9">
-        <v>0.8858930048630905</v>
+        <v>0.9831693451202929</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1655637249968011</v>
+        <v>0.1561833212529775</v>
       </c>
       <c r="C10">
-        <v>0.6554059886689477</v>
+        <v>0.8228064401698413</v>
       </c>
       <c r="D10">
-        <v>0.9061585844750577</v>
+        <v>1.151759043685242</v>
       </c>
       <c r="E10">
-        <v>0.9519236232361595</v>
+        <v>1.073200374433983</v>
       </c>
       <c r="F10">
-        <v>0.9831693451202929</v>
+        <v>1.119208953704769</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1561833212529775</v>
+        <v>0.2159576617971593</v>
       </c>
       <c r="C11">
-        <v>0.8228064401698413</v>
+        <v>0.7410366868087477</v>
       </c>
       <c r="D11">
-        <v>1.151759043685242</v>
+        <v>1.038095822625857</v>
       </c>
       <c r="E11">
-        <v>1.073200374433983</v>
+        <v>1.018869875217565</v>
       </c>
       <c r="F11">
-        <v>1.119208953704769</v>
+        <v>1.05612043574778</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_T45_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_T45_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03281260289867554</v>
+        <v>0.01140061561852912</v>
       </c>
       <c r="C2">
-        <v>0.712211698162994</v>
+        <v>0.1285420665309999</v>
       </c>
       <c r="D2">
-        <v>1.276354782257036</v>
+        <v>0.03014188771060794</v>
       </c>
       <c r="E2">
-        <v>1.12975872745336</v>
+        <v>0.1736141921347674</v>
       </c>
       <c r="F2">
-        <v>1.162021718847977</v>
+        <v>0.1779866349240244</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.08894343397640261</v>
+        <v>0.03281260289867554</v>
       </c>
       <c r="C3">
-        <v>0.6850734014878143</v>
+        <v>0.712211698162994</v>
       </c>
       <c r="D3">
-        <v>1.351404884049018</v>
+        <v>1.276354782257036</v>
       </c>
       <c r="E3">
-        <v>1.162499412494053</v>
+        <v>1.12975872745336</v>
       </c>
       <c r="F3">
-        <v>1.194764546449047</v>
+        <v>1.162021718847977</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01098408408208978</v>
+        <v>-0.08894343397640261</v>
       </c>
       <c r="C4">
-        <v>0.5782217553777625</v>
+        <v>0.6850734014878143</v>
       </c>
       <c r="D4">
-        <v>0.6081029103588239</v>
+        <v>1.351404884049018</v>
       </c>
       <c r="E4">
-        <v>0.7798095346678084</v>
+        <v>1.162499412494053</v>
       </c>
       <c r="F4">
-        <v>0.805303924577184</v>
+        <v>1.194764546449047</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1235330352319591</v>
+        <v>0.01098408408208978</v>
       </c>
       <c r="C5">
-        <v>0.5509845820580629</v>
+        <v>0.5782217553777625</v>
       </c>
       <c r="D5">
-        <v>0.7140980823158125</v>
+        <v>0.6081029103588239</v>
       </c>
       <c r="E5">
-        <v>0.8450432428673769</v>
+        <v>0.7798095346678084</v>
       </c>
       <c r="F5">
-        <v>0.8653061007871674</v>
+        <v>0.805303924577184</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08484111210645341</v>
+        <v>0.1235330352319591</v>
       </c>
       <c r="C6">
-        <v>0.6180194413583581</v>
+        <v>0.5509845820580629</v>
       </c>
       <c r="D6">
-        <v>0.73762096509949</v>
+        <v>0.7140980823158125</v>
       </c>
       <c r="E6">
-        <v>0.858848627582003</v>
+        <v>0.8450432428673769</v>
       </c>
       <c r="F6">
-        <v>0.8869099907129777</v>
+        <v>0.8653061007871674</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09014767153583389</v>
+        <v>0.08484111210645341</v>
       </c>
       <c r="C7">
-        <v>0.6854765477197997</v>
+        <v>0.6180194413583581</v>
       </c>
       <c r="D7">
-        <v>0.9025650063113468</v>
+        <v>0.73762096509949</v>
       </c>
       <c r="E7">
-        <v>0.9500342132320009</v>
+        <v>0.858848627582003</v>
       </c>
       <c r="F7">
-        <v>0.9843652458633849</v>
+        <v>0.8869099907129777</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1184762789139503</v>
+        <v>0.09014767153583389</v>
       </c>
       <c r="C8">
-        <v>0.603487522271732</v>
+        <v>0.6854765477197997</v>
       </c>
       <c r="D8">
-        <v>0.7334425100585387</v>
+        <v>0.9025650063113468</v>
       </c>
       <c r="E8">
-        <v>0.856412581679262</v>
+        <v>0.9500342132320009</v>
       </c>
       <c r="F8">
-        <v>0.8858930048630905</v>
+        <v>0.9843652458633849</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1655637249968011</v>
+        <v>0.1184762789139503</v>
       </c>
       <c r="C9">
-        <v>0.6554059886689477</v>
+        <v>0.603487522271732</v>
       </c>
       <c r="D9">
-        <v>0.9061585844750577</v>
+        <v>0.7334425100585387</v>
       </c>
       <c r="E9">
-        <v>0.9519236232361595</v>
+        <v>0.856412581679262</v>
       </c>
       <c r="F9">
-        <v>0.9831693451202929</v>
+        <v>0.8858930048630905</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1561833212529775</v>
+        <v>0.1655637249968011</v>
       </c>
       <c r="C10">
-        <v>0.8228064401698413</v>
+        <v>0.6554059886689477</v>
       </c>
       <c r="D10">
-        <v>1.151759043685242</v>
+        <v>0.9061585844750577</v>
       </c>
       <c r="E10">
-        <v>1.073200374433983</v>
+        <v>0.9519236232361595</v>
       </c>
       <c r="F10">
-        <v>1.119208953704769</v>
+        <v>0.9831693451202929</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2159576617971593</v>
+        <v>0.1561833212529775</v>
       </c>
       <c r="C11">
-        <v>0.7410366868087477</v>
+        <v>0.8228064401698413</v>
       </c>
       <c r="D11">
-        <v>1.038095822625857</v>
+        <v>1.151759043685242</v>
       </c>
       <c r="E11">
-        <v>1.018869875217565</v>
+        <v>1.073200374433983</v>
       </c>
       <c r="F11">
-        <v>1.05612043574778</v>
+        <v>1.119208953704769</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
